--- a/public/template/studentsImport.xlsx
+++ b/public/template/studentsImport.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$19</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -28,13 +28,61 @@
     <t>2、Excel中红色字段为必填字段,黑色字段为选填字段，字段值里请不要填入“，”字符；</t>
   </si>
   <si>
-    <t>3、学生姓名：必填项（例如：张小明）</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学生姓名：必填项，与家校通讯录中学生姓名保持一致</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（例如：张小明）</t>
+    </r>
   </si>
   <si>
-    <t>4、行政班年级：非必填项，年级名称（例如：五年级）</t>
+    <r>
+      <t>4、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学号：必填项，与家校通讯录中学生账号保持一致</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，避免同年级同班级存在重复学生（ 例如：g140821200510110019）</t>
+    </r>
   </si>
   <si>
-    <t>5、学号：必填项，避免同年级同班级存在重复学生（ 例如：g140821200510110019）</t>
+    <t>5、行政班年级：非必填项，年级名称（例如：五年级）</t>
   </si>
   <si>
     <t>6、行政班班级：非必填项，班级名称，（例如：2班）</t>
@@ -43,13 +91,13 @@
     <t>学生姓名</t>
   </si>
   <si>
+    <t>学号</t>
+  </si>
+  <si>
     <t>行政班年级</t>
   </si>
   <si>
     <t>行政班班级</t>
-  </si>
-  <si>
-    <t>学号</t>
   </si>
 </sst>
 </file>
@@ -57,12 +105,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,22 +134,44 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,28 +182,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -142,29 +190,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -173,10 +198,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,58 +214,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -251,187 +306,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +497,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,17 +524,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,20 +548,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,15 +580,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -542,6 +588,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +605,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +617,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,18 +1075,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:R4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="1:3">
@@ -1171,7 +1225,7 @@
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1180,9 +1234,8 @@
     </row>
     <row r="9" s="1" customFormat="1"/>
     <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
   </sheetData>
-  <autoFilter ref="A1:C20">
+  <autoFilter ref="A1:C19">
     <extLst/>
   </autoFilter>
   <mergeCells count="7">
